--- a/Project Files/Forms System Final/templates/jh_sf10.xlsx
+++ b/Project Files/Forms System Final/templates/jh_sf10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCDAB12-0915-4539-805B-B6D475C6860C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205968B1-7FEF-458C-8398-C8A61E623F97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,7 +1249,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,52 +1440,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1500,60 +1551,9 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2752,7 +2752,7 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24:R24"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7907,9 +7907,9 @@
       <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="218"/>
       <c r="F20" s="11" t="s">
         <v>17</v>
       </c>
@@ -7944,10 +7944,10 @@
       <c r="AC20" s="14"/>
     </row>
     <row r="21" spans="2:29" s="16" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="202" t="s">
+      <c r="B21" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="203"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="55"/>
       <c r="E21" s="45" t="s">
         <v>32</v>
@@ -7956,8 +7956,8 @@
       <c r="G21" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="211"/>
-      <c r="I21" s="211"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
       <c r="J21" s="57" t="s">
         <v>70</v>
       </c>
@@ -7998,33 +7998,33 @@
       <c r="M22" s="19"/>
     </row>
     <row r="23" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="216" t="s">
+      <c r="B23" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="217"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="218"/>
-      <c r="G23" s="210" t="s">
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
       <c r="K23" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="197" t="s">
+      <c r="L23" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M23" s="200"/>
+      <c r="M23" s="198"/>
     </row>
     <row r="24" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="219"/>
-      <c r="C24" s="220"/>
-      <c r="D24" s="220"/>
-      <c r="E24" s="220"/>
-      <c r="F24" s="221"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="217"/>
       <c r="G24" s="21">
         <v>1</v>
       </c>
@@ -8040,220 +8040,220 @@
       <c r="K24" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="197"/>
-      <c r="M24" s="200"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="198"/>
     </row>
     <row r="25" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="187"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="189"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="187"/>
       <c r="G25" s="52"/>
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
       <c r="K25" s="53"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="191"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="189"/>
     </row>
     <row r="26" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="187"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="189"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="187"/>
       <c r="G26" s="52"/>
       <c r="H26" s="53"/>
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
       <c r="K26" s="53"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="191"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="189"/>
     </row>
     <row r="27" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="187"/>
-      <c r="C27" s="188"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="188"/>
-      <c r="F27" s="189"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="187"/>
       <c r="G27" s="52"/>
       <c r="H27" s="53"/>
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
       <c r="K27" s="53"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="191"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="189"/>
     </row>
     <row r="28" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="187"/>
-      <c r="C28" s="188"/>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="189"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="52"/>
       <c r="H28" s="53"/>
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
       <c r="K28" s="53"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="191"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="189"/>
     </row>
     <row r="29" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="187"/>
-      <c r="C29" s="188"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="189"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="187"/>
       <c r="G29" s="52"/>
       <c r="H29" s="53"/>
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
       <c r="K29" s="53"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="191"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="189"/>
     </row>
     <row r="30" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="187"/>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="189"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="187"/>
       <c r="G30" s="52"/>
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
       <c r="K30" s="53"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="191"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="189"/>
     </row>
     <row r="31" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="187"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="189"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="187"/>
       <c r="G31" s="52"/>
       <c r="H31" s="53"/>
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
       <c r="K31" s="53"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="191"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="189"/>
     </row>
     <row r="32" spans="2:29" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="187"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="188"/>
-      <c r="E32" s="188"/>
-      <c r="F32" s="189"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="187"/>
       <c r="G32" s="52"/>
       <c r="H32" s="53"/>
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
       <c r="K32" s="53"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="191"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="189"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="187"/>
       <c r="G33" s="52"/>
       <c r="H33" s="53"/>
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
       <c r="K33" s="53"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="191"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="189"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="189"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="187"/>
       <c r="G34" s="52"/>
       <c r="H34" s="53"/>
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
       <c r="K34" s="53"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="191"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="189"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="187"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="52"/>
       <c r="H35" s="53"/>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
       <c r="K35" s="53"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="191"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="189"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="187"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="189"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="187"/>
       <c r="G36" s="52"/>
       <c r="H36" s="53"/>
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
       <c r="K36" s="53"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="189"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="187"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="189"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="187"/>
       <c r="G37" s="52"/>
       <c r="H37" s="53"/>
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
       <c r="K37" s="53"/>
-      <c r="L37" s="185"/>
-      <c r="M37" s="186"/>
+      <c r="L37" s="210"/>
+      <c r="M37" s="211"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="187"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="189"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="186"/>
+      <c r="F38" s="187"/>
       <c r="G38" s="52"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
       <c r="K38" s="53"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="189"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="208"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="213" t="s">
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="215"/>
+      <c r="H39" s="208"/>
+      <c r="I39" s="208"/>
+      <c r="J39" s="209"/>
       <c r="K39" s="59"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="191"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="189"/>
     </row>
     <row r="40" spans="2:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="222"/>
@@ -8270,11 +8270,11 @@
       <c r="M40" s="224"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
       <c r="E41" s="25" t="s">
         <v>41</v>
       </c>
@@ -8284,69 +8284,69 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="195"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="193"/>
     </row>
     <row r="42" spans="2:13" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="196" t="s">
+      <c r="B42" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="197"/>
-      <c r="D42" s="197"/>
-      <c r="E42" s="197" t="s">
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197" t="s">
+      <c r="F42" s="195"/>
+      <c r="G42" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198" t="s">
+      <c r="H42" s="195"/>
+      <c r="I42" s="195"/>
+      <c r="J42" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="199"/>
-      <c r="L42" s="197" t="s">
+      <c r="K42" s="197"/>
+      <c r="L42" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M42" s="200"/>
+      <c r="M42" s="198"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="205"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="206"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="206"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="206"/>
-      <c r="L43" s="206"/>
-      <c r="M43" s="212"/>
+      <c r="B43" s="200"/>
+      <c r="C43" s="201"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="201"/>
+      <c r="G43" s="201"/>
+      <c r="H43" s="201"/>
+      <c r="I43" s="201"/>
+      <c r="J43" s="201"/>
+      <c r="K43" s="201"/>
+      <c r="L43" s="201"/>
+      <c r="M43" s="203"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="207"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
-      <c r="L44" s="192"/>
-      <c r="M44" s="193"/>
+      <c r="B44" s="202"/>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="190"/>
+      <c r="M44" s="191"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="2:13" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="201"/>
-      <c r="D46" s="201"/>
-      <c r="E46" s="201"/>
+      <c r="C46" s="218"/>
+      <c r="D46" s="218"/>
+      <c r="E46" s="218"/>
       <c r="F46" s="47" t="s">
         <v>17</v>
       </c>
@@ -8365,10 +8365,10 @@
       <c r="M46" s="50"/>
     </row>
     <row r="47" spans="2:13" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="202" t="s">
+      <c r="B47" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="203"/>
+      <c r="C47" s="220"/>
       <c r="D47" s="55"/>
       <c r="E47" s="57" t="s">
         <v>32</v>
@@ -8377,8 +8377,8 @@
       <c r="G47" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="211"/>
-      <c r="I47" s="211"/>
+      <c r="H47" s="221"/>
+      <c r="I47" s="221"/>
       <c r="J47" s="57" t="s">
         <v>70</v>
       </c>
@@ -8394,33 +8394,33 @@
       <c r="M48" s="19"/>
     </row>
     <row r="49" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="216" t="s">
+      <c r="B49" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="217"/>
-      <c r="D49" s="217"/>
-      <c r="E49" s="217"/>
-      <c r="F49" s="218"/>
-      <c r="G49" s="210" t="s">
+      <c r="C49" s="213"/>
+      <c r="D49" s="213"/>
+      <c r="E49" s="213"/>
+      <c r="F49" s="214"/>
+      <c r="G49" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="H49" s="190"/>
-      <c r="I49" s="190"/>
-      <c r="J49" s="190"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="188"/>
       <c r="K49" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L49" s="197" t="s">
+      <c r="L49" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M49" s="200"/>
+      <c r="M49" s="198"/>
     </row>
     <row r="50" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="219"/>
-      <c r="C50" s="220"/>
-      <c r="D50" s="220"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="221"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="216"/>
+      <c r="E50" s="216"/>
+      <c r="F50" s="217"/>
       <c r="G50" s="21">
         <v>1</v>
       </c>
@@ -8436,220 +8436,220 @@
       <c r="K50" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L50" s="197"/>
-      <c r="M50" s="200"/>
+      <c r="L50" s="195"/>
+      <c r="M50" s="198"/>
     </row>
     <row r="51" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="187"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="189"/>
+      <c r="B51" s="185"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="187"/>
       <c r="G51" s="52"/>
       <c r="H51" s="53"/>
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
       <c r="K51" s="53"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="191"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="189"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="187"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="189"/>
+      <c r="B52" s="185"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="187"/>
       <c r="G52" s="52"/>
       <c r="H52" s="53"/>
       <c r="I52" s="53"/>
       <c r="J52" s="53"/>
       <c r="K52" s="53"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="191"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="189"/>
     </row>
     <row r="53" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="187"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="189"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="187"/>
       <c r="G53" s="52"/>
       <c r="H53" s="53"/>
       <c r="I53" s="53"/>
       <c r="J53" s="53"/>
       <c r="K53" s="53"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="191"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="189"/>
     </row>
     <row r="54" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="187"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="189"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="187"/>
       <c r="G54" s="52"/>
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
       <c r="J54" s="53"/>
       <c r="K54" s="53"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="191"/>
+      <c r="L54" s="188"/>
+      <c r="M54" s="189"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B55" s="187"/>
-      <c r="C55" s="188"/>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="189"/>
+      <c r="B55" s="185"/>
+      <c r="C55" s="186"/>
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="187"/>
       <c r="G55" s="52"/>
       <c r="H55" s="53"/>
       <c r="I55" s="53"/>
       <c r="J55" s="53"/>
       <c r="K55" s="53"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="191"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="189"/>
     </row>
     <row r="56" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="187"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="189"/>
+      <c r="B56" s="185"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="186"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="187"/>
       <c r="G56" s="52"/>
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
       <c r="J56" s="53"/>
       <c r="K56" s="53"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="191"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="189"/>
     </row>
     <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="187"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="189"/>
+      <c r="B57" s="185"/>
+      <c r="C57" s="186"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="186"/>
+      <c r="F57" s="187"/>
       <c r="G57" s="52"/>
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
       <c r="J57" s="53"/>
       <c r="K57" s="53"/>
-      <c r="L57" s="190"/>
-      <c r="M57" s="191"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="189"/>
     </row>
     <row r="58" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="187"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="188"/>
-      <c r="E58" s="188"/>
-      <c r="F58" s="189"/>
+      <c r="B58" s="185"/>
+      <c r="C58" s="186"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="186"/>
+      <c r="F58" s="187"/>
       <c r="G58" s="52"/>
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
       <c r="J58" s="53"/>
       <c r="K58" s="53"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="191"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="189"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="187"/>
-      <c r="C59" s="188"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="189"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="187"/>
       <c r="G59" s="52"/>
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
       <c r="J59" s="53"/>
       <c r="K59" s="53"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="191"/>
+      <c r="L59" s="188"/>
+      <c r="M59" s="189"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="187"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="189"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="187"/>
       <c r="G60" s="52"/>
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
       <c r="J60" s="53"/>
       <c r="K60" s="53"/>
-      <c r="L60" s="190"/>
-      <c r="M60" s="191"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="189"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="187"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="189"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="187"/>
       <c r="G61" s="52"/>
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
       <c r="J61" s="53"/>
       <c r="K61" s="53"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="191"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="189"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="187"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="189"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="187"/>
       <c r="G62" s="52"/>
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
       <c r="J62" s="53"/>
       <c r="K62" s="53"/>
-      <c r="L62" s="190"/>
-      <c r="M62" s="191"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="189"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="208"/>
-      <c r="C63" s="209"/>
-      <c r="D63" s="209"/>
-      <c r="E63" s="209"/>
-      <c r="F63" s="210"/>
+      <c r="B63" s="204"/>
+      <c r="C63" s="205"/>
+      <c r="D63" s="205"/>
+      <c r="E63" s="205"/>
+      <c r="F63" s="206"/>
       <c r="G63" s="52"/>
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
-      <c r="L63" s="185"/>
-      <c r="M63" s="186"/>
+      <c r="L63" s="210"/>
+      <c r="M63" s="211"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="208"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
-      <c r="E64" s="209"/>
-      <c r="F64" s="210"/>
+      <c r="B64" s="204"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="205"/>
+      <c r="F64" s="206"/>
       <c r="G64" s="52"/>
       <c r="H64" s="53"/>
       <c r="I64" s="53"/>
       <c r="J64" s="53"/>
       <c r="K64" s="53"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="191"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="189"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="208"/>
-      <c r="C65" s="209"/>
-      <c r="D65" s="209"/>
-      <c r="E65" s="209"/>
-      <c r="F65" s="210"/>
-      <c r="G65" s="213" t="s">
+      <c r="B65" s="204"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="206"/>
+      <c r="G65" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="H65" s="214"/>
-      <c r="I65" s="214"/>
-      <c r="J65" s="215"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="209"/>
       <c r="K65" s="59"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="191"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="189"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="29"/>
@@ -8664,11 +8664,11 @@
       <c r="M67" s="31"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="205" t="s">
+      <c r="B68" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="206"/>
-      <c r="D68" s="206"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="201"/>
       <c r="E68" s="25" t="s">
         <v>48</v>
       </c>
@@ -8678,60 +8678,60 @@
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
-      <c r="L68" s="194"/>
-      <c r="M68" s="195"/>
+      <c r="L68" s="192"/>
+      <c r="M68" s="193"/>
     </row>
     <row r="69" spans="2:13" s="27" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="196" t="s">
+      <c r="B69" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="197"/>
-      <c r="D69" s="197"/>
-      <c r="E69" s="197" t="s">
+      <c r="C69" s="195"/>
+      <c r="D69" s="195"/>
+      <c r="E69" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="197"/>
-      <c r="G69" s="197" t="s">
+      <c r="F69" s="195"/>
+      <c r="G69" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H69" s="197"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="198" t="s">
+      <c r="H69" s="195"/>
+      <c r="I69" s="195"/>
+      <c r="J69" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K69" s="199"/>
-      <c r="L69" s="197" t="s">
+      <c r="K69" s="197"/>
+      <c r="L69" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M69" s="200"/>
+      <c r="M69" s="198"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="205"/>
-      <c r="C70" s="206"/>
-      <c r="D70" s="206"/>
-      <c r="E70" s="206"/>
-      <c r="F70" s="206"/>
-      <c r="G70" s="206"/>
-      <c r="H70" s="206"/>
-      <c r="I70" s="206"/>
-      <c r="J70" s="206"/>
-      <c r="K70" s="206"/>
-      <c r="L70" s="206"/>
-      <c r="M70" s="212"/>
+      <c r="B70" s="200"/>
+      <c r="C70" s="201"/>
+      <c r="D70" s="201"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201"/>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="201"/>
+      <c r="L70" s="201"/>
+      <c r="M70" s="203"/>
     </row>
     <row r="71" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="207"/>
-      <c r="C71" s="192"/>
-      <c r="D71" s="192"/>
-      <c r="E71" s="192"/>
-      <c r="F71" s="192"/>
-      <c r="G71" s="192"/>
-      <c r="H71" s="192"/>
-      <c r="I71" s="192"/>
-      <c r="J71" s="192"/>
-      <c r="K71" s="192"/>
-      <c r="L71" s="192"/>
-      <c r="M71" s="193"/>
+      <c r="B71" s="202"/>
+      <c r="C71" s="190"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="190"/>
+      <c r="F71" s="190"/>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="190"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="191"/>
     </row>
     <row r="72" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
@@ -8782,7 +8782,7 @@
       <c r="M78" s="30"/>
     </row>
     <row r="79" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="204" t="s">
+      <c r="B79" s="199" t="s">
         <v>53</v>
       </c>
       <c r="C79" s="158"/>
@@ -8893,18 +8893,21 @@
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="L49:M50"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="G49:J49"/>
     <mergeCell ref="G65:J65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="B68:D68"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="L63:M63"/>
     <mergeCell ref="B79:D79"/>
     <mergeCell ref="E79:I79"/>
     <mergeCell ref="B70:D70"/>
@@ -8915,14 +8918,6 @@
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="G71:I71"/>
     <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="L63:M63"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="B55:F55"/>
@@ -8942,6 +8937,11 @@
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="L59:M59"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8976,9 +8976,9 @@
       <c r="B3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
       <c r="F3" s="47" t="s">
         <v>17</v>
       </c>
@@ -8997,10 +8997,10 @@
       <c r="M3" s="50"/>
     </row>
     <row r="4" spans="2:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="203"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="55"/>
       <c r="E4" s="57" t="s">
         <v>32</v>
@@ -9009,8 +9009,8 @@
       <c r="G4" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
       <c r="J4" s="57" t="s">
         <v>70</v>
       </c>
@@ -9035,33 +9035,33 @@
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="216" t="s">
+      <c r="B6" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="217"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="217"/>
-      <c r="F6" s="218"/>
-      <c r="G6" s="210" t="s">
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="197" t="s">
+      <c r="L6" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="200"/>
+      <c r="M6" s="198"/>
     </row>
     <row r="7" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="219"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="221"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
       <c r="G7" s="34">
         <v>1</v>
       </c>
@@ -9077,15 +9077,15 @@
       <c r="K7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="197"/>
-      <c r="M7" s="200"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="198"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="52" t="s">
         <v>68</v>
       </c>
@@ -9101,15 +9101,15 @@
       <c r="K8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="52" t="s">
         <v>68</v>
       </c>
@@ -9125,15 +9125,15 @@
       <c r="K9" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="189"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
       <c r="G10" s="52" t="s">
         <v>68</v>
       </c>
@@ -9149,15 +9149,15 @@
       <c r="K10" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="190"/>
-      <c r="M10" s="191"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="189"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="187"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="187"/>
       <c r="G11" s="52" t="s">
         <v>68</v>
       </c>
@@ -9173,15 +9173,15 @@
       <c r="K11" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="190"/>
-      <c r="M11" s="191"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="189"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="52" t="s">
         <v>68</v>
       </c>
@@ -9197,15 +9197,15 @@
       <c r="K12" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="190"/>
-      <c r="M12" s="191"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="208"/>
-      <c r="C13" s="209"/>
-      <c r="D13" s="209"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="210"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="52" t="s">
         <v>68</v>
       </c>
@@ -9221,15 +9221,15 @@
       <c r="K13" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="190"/>
-      <c r="M13" s="191"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="208"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="210"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="206"/>
       <c r="G14" s="52" t="s">
         <v>68</v>
       </c>
@@ -9245,15 +9245,15 @@
       <c r="K14" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="187"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="52" t="s">
         <v>68</v>
       </c>
@@ -9269,15 +9269,15 @@
       <c r="K15" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="189"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="187"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="52" t="s">
         <v>68</v>
       </c>
@@ -9293,15 +9293,15 @@
       <c r="K16" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="189"/>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="187"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="187"/>
       <c r="G17" s="52" t="s">
         <v>68</v>
       </c>
@@ -9317,15 +9317,15 @@
       <c r="K17" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L17" s="190"/>
-      <c r="M17" s="191"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="189"/>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="187"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="52" t="s">
         <v>68</v>
       </c>
@@ -9341,15 +9341,15 @@
       <c r="K18" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L18" s="185"/>
-      <c r="M18" s="186"/>
+      <c r="L18" s="210"/>
+      <c r="M18" s="211"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="187"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52" t="s">
         <v>68</v>
       </c>
@@ -9365,15 +9365,15 @@
       <c r="K19" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="185"/>
-      <c r="M19" s="186"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="211"/>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="187"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="52" t="s">
         <v>68</v>
       </c>
@@ -9389,38 +9389,38 @@
       <c r="K20" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="189"/>
     </row>
     <row r="21" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="52"/>
       <c r="H21" s="53"/>
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
       <c r="K21" s="53"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="189"/>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="208"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="213" t="s">
+      <c r="B22" s="204"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="214"/>
-      <c r="I22" s="214"/>
-      <c r="J22" s="215"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="59"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="191"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="189"/>
     </row>
     <row r="23" spans="2:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
@@ -9439,11 +9439,11 @@
       <c r="M23" s="38"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="205" t="s">
+      <c r="B24" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
+      <c r="C24" s="201"/>
+      <c r="D24" s="201"/>
       <c r="E24" s="25" t="s">
         <v>58</v>
       </c>
@@ -9457,65 +9457,65 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="196" t="s">
+      <c r="B25" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="197"/>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197" t="s">
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197" t="s">
+      <c r="F25" s="195"/>
+      <c r="G25" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="198" t="s">
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="199"/>
-      <c r="L25" s="197" t="s">
+      <c r="K25" s="197"/>
+      <c r="L25" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="200"/>
+      <c r="M25" s="198"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="205"/>
-      <c r="C26" s="206"/>
-      <c r="D26" s="206"/>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="206"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="206"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="206"/>
-      <c r="L26" s="206"/>
-      <c r="M26" s="212"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="201"/>
+      <c r="G26" s="201"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="203"/>
     </row>
     <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="207"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="193"/>
+      <c r="B27" s="202"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="191"/>
     </row>
     <row r="28" spans="2:13" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="201"/>
-      <c r="E29" s="201"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
       <c r="F29" s="47" t="s">
         <v>17</v>
       </c>
@@ -9534,10 +9534,10 @@
       <c r="M29" s="50"/>
     </row>
     <row r="30" spans="2:13" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="202" t="s">
+      <c r="B30" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="203"/>
+      <c r="C30" s="220"/>
       <c r="D30" s="55"/>
       <c r="E30" s="57" t="s">
         <v>32</v>
@@ -9546,8 +9546,8 @@
       <c r="G30" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="221"/>
       <c r="J30" s="57" t="s">
         <v>70</v>
       </c>
@@ -9558,33 +9558,33 @@
       <c r="M30" s="56"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="216" t="s">
+      <c r="B31" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="217"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="210" t="s">
+      <c r="C31" s="213"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="190"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="188"/>
       <c r="K31" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="197" t="s">
+      <c r="L31" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="200"/>
+      <c r="M31" s="198"/>
     </row>
     <row r="32" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="219"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="216"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="34">
         <v>1</v>
       </c>
@@ -9600,15 +9600,15 @@
       <c r="K32" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="197"/>
-      <c r="M32" s="200"/>
+      <c r="L32" s="195"/>
+      <c r="M32" s="198"/>
     </row>
     <row r="33" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="187"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="189"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="187"/>
       <c r="G33" s="52"/>
       <c r="H33" s="53" t="s">
         <v>68</v>
@@ -9622,15 +9622,15 @@
       <c r="K33" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="190"/>
-      <c r="M33" s="191"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="189"/>
     </row>
     <row r="34" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="187"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="188"/>
-      <c r="F34" s="189"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="187"/>
       <c r="G34" s="52"/>
       <c r="H34" s="53" t="s">
         <v>68</v>
@@ -9644,15 +9644,15 @@
       <c r="K34" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="190"/>
-      <c r="M34" s="191"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="189"/>
     </row>
     <row r="35" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="187"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="189"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="52"/>
       <c r="H35" s="53" t="s">
         <v>68</v>
@@ -9666,15 +9666,15 @@
       <c r="K35" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L35" s="190"/>
-      <c r="M35" s="191"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="189"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="187"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="189"/>
+      <c r="B36" s="185"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="187"/>
       <c r="G36" s="52"/>
       <c r="H36" s="53" t="s">
         <v>68</v>
@@ -9688,15 +9688,15 @@
       <c r="K36" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L36" s="190"/>
-      <c r="M36" s="191"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="189"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="187"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="188"/>
-      <c r="F37" s="189"/>
+      <c r="B37" s="185"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="187"/>
       <c r="G37" s="52"/>
       <c r="H37" s="53" t="s">
         <v>68</v>
@@ -9710,15 +9710,15 @@
       <c r="K37" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="189"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="208"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="210"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="206"/>
       <c r="G38" s="52"/>
       <c r="H38" s="53" t="s">
         <v>68</v>
@@ -9732,15 +9732,15 @@
       <c r="K38" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L38" s="190"/>
-      <c r="M38" s="191"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="189"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="208"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="210"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="205"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="206"/>
       <c r="G39" s="52"/>
       <c r="H39" s="53" t="s">
         <v>68</v>
@@ -9754,15 +9754,15 @@
       <c r="K39" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L39" s="190"/>
-      <c r="M39" s="191"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="189"/>
     </row>
     <row r="40" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="187"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="189"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="187"/>
       <c r="G40" s="52"/>
       <c r="H40" s="53" t="s">
         <v>68</v>
@@ -9776,15 +9776,15 @@
       <c r="K40" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L40" s="190"/>
-      <c r="M40" s="191"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="189"/>
     </row>
     <row r="41" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="187"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="189"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="187"/>
       <c r="G41" s="52"/>
       <c r="H41" s="53" t="s">
         <v>68</v>
@@ -9798,15 +9798,15 @@
       <c r="K41" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="189"/>
     </row>
     <row r="42" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="187"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="189"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="187"/>
       <c r="G42" s="52"/>
       <c r="H42" s="53" t="s">
         <v>68</v>
@@ -9820,15 +9820,15 @@
       <c r="K42" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L42" s="190"/>
-      <c r="M42" s="191"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="189"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="187"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="187"/>
       <c r="G43" s="52"/>
       <c r="H43" s="53" t="s">
         <v>68</v>
@@ -9842,15 +9842,15 @@
       <c r="K43" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="189"/>
     </row>
     <row r="44" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="187"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="189"/>
+      <c r="B44" s="185"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="187"/>
       <c r="G44" s="52"/>
       <c r="H44" s="53" t="s">
         <v>68</v>
@@ -9864,43 +9864,43 @@
       <c r="K44" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="L44" s="190"/>
-      <c r="M44" s="191"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="189"/>
     </row>
     <row r="45" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="208"/>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="210"/>
+      <c r="B45" s="204"/>
+      <c r="C45" s="205"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="206"/>
       <c r="G45" s="52"/>
       <c r="H45" s="53"/>
       <c r="I45" s="53"/>
       <c r="J45" s="53"/>
       <c r="K45" s="53"/>
-      <c r="L45" s="185"/>
-      <c r="M45" s="186"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="211"/>
     </row>
     <row r="46" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="208"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="210"/>
+      <c r="B46" s="204"/>
+      <c r="C46" s="205"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="205"/>
+      <c r="F46" s="206"/>
       <c r="G46" s="52"/>
       <c r="H46" s="53"/>
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
       <c r="K46" s="53"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="191"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="189"/>
     </row>
     <row r="47" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="208"/>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="210"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="206"/>
       <c r="G47" s="237" t="s">
         <v>39</v>
       </c>
@@ -9910,8 +9910,8 @@
       <c r="K47" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="L47" s="190"/>
-      <c r="M47" s="191"/>
+      <c r="L47" s="188"/>
+      <c r="M47" s="189"/>
     </row>
     <row r="48" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="36"/>
@@ -9931,8 +9931,8 @@
       <c r="B49" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
       <c r="E49" s="24" t="s">
         <v>60</v>
       </c>
@@ -9946,56 +9946,56 @@
       <c r="M49" s="39"/>
     </row>
     <row r="50" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="196" t="s">
+      <c r="B50" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="197"/>
-      <c r="D50" s="197"/>
-      <c r="E50" s="197" t="s">
+      <c r="C50" s="195"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="197"/>
-      <c r="G50" s="197" t="s">
+      <c r="F50" s="195"/>
+      <c r="G50" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="197"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198" t="s">
+      <c r="H50" s="195"/>
+      <c r="I50" s="195"/>
+      <c r="J50" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K50" s="199"/>
-      <c r="L50" s="197" t="s">
+      <c r="K50" s="197"/>
+      <c r="L50" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M50" s="200"/>
+      <c r="M50" s="198"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="205"/>
-      <c r="C51" s="206"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="206"/>
-      <c r="G51" s="206"/>
-      <c r="H51" s="206"/>
-      <c r="I51" s="206"/>
-      <c r="J51" s="206"/>
-      <c r="K51" s="206"/>
-      <c r="L51" s="206"/>
-      <c r="M51" s="212"/>
+      <c r="B51" s="200"/>
+      <c r="C51" s="201"/>
+      <c r="D51" s="201"/>
+      <c r="E51" s="201"/>
+      <c r="F51" s="201"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="201"/>
+      <c r="M51" s="203"/>
     </row>
     <row r="52" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="207"/>
-      <c r="C52" s="192"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="192"/>
-      <c r="K52" s="192"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="193"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="190"/>
+      <c r="D52" s="190"/>
+      <c r="E52" s="190"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="190"/>
+      <c r="I52" s="190"/>
+      <c r="J52" s="190"/>
+      <c r="K52" s="190"/>
+      <c r="L52" s="190"/>
+      <c r="M52" s="191"/>
     </row>
     <row r="53" spans="2:13" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="40"/>
@@ -10015,9 +10015,9 @@
       <c r="B54" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="201"/>
-      <c r="D54" s="201"/>
-      <c r="E54" s="201"/>
+      <c r="C54" s="218"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="218"/>
       <c r="F54" s="47" t="s">
         <v>17</v>
       </c>
@@ -10036,10 +10036,10 @@
       <c r="M54" s="50"/>
     </row>
     <row r="55" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="202" t="s">
+      <c r="B55" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="203"/>
+      <c r="C55" s="220"/>
       <c r="D55" s="55"/>
       <c r="E55" s="57" t="s">
         <v>32</v>
@@ -10048,8 +10048,8 @@
       <c r="G55" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H55" s="211"/>
-      <c r="I55" s="211"/>
+      <c r="H55" s="221"/>
+      <c r="I55" s="221"/>
       <c r="J55" s="57" t="s">
         <v>70</v>
       </c>
@@ -10074,33 +10074,33 @@
       <c r="M56" s="19"/>
     </row>
     <row r="57" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="216" t="s">
+      <c r="B57" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="217"/>
-      <c r="E57" s="217"/>
-      <c r="F57" s="218"/>
-      <c r="G57" s="210" t="s">
+      <c r="C57" s="213"/>
+      <c r="D57" s="213"/>
+      <c r="E57" s="213"/>
+      <c r="F57" s="214"/>
+      <c r="G57" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="190"/>
-      <c r="I57" s="190"/>
-      <c r="J57" s="190"/>
+      <c r="H57" s="188"/>
+      <c r="I57" s="188"/>
+      <c r="J57" s="188"/>
       <c r="K57" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L57" s="197" t="s">
+      <c r="L57" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M57" s="200"/>
+      <c r="M57" s="198"/>
     </row>
     <row r="58" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="219"/>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
-      <c r="E58" s="220"/>
-      <c r="F58" s="221"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="216"/>
+      <c r="E58" s="216"/>
+      <c r="F58" s="217"/>
       <c r="G58" s="21">
         <v>1</v>
       </c>
@@ -10116,222 +10116,222 @@
       <c r="K58" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L58" s="197"/>
-      <c r="M58" s="200"/>
+      <c r="L58" s="195"/>
+      <c r="M58" s="198"/>
     </row>
     <row r="59" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="187"/>
-      <c r="C59" s="188"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="189"/>
+      <c r="B59" s="185"/>
+      <c r="C59" s="186"/>
+      <c r="D59" s="186"/>
+      <c r="E59" s="186"/>
+      <c r="F59" s="187"/>
       <c r="G59" s="52"/>
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
       <c r="J59" s="53"/>
       <c r="K59" s="53"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="191"/>
+      <c r="L59" s="188"/>
+      <c r="M59" s="189"/>
     </row>
     <row r="60" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="187"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="188"/>
-      <c r="E60" s="188"/>
-      <c r="F60" s="189"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="187"/>
       <c r="G60" s="52"/>
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
       <c r="J60" s="53"/>
       <c r="K60" s="53"/>
-      <c r="L60" s="190"/>
-      <c r="M60" s="191"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="189"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B61" s="187"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="188"/>
-      <c r="F61" s="189"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="187"/>
       <c r="G61" s="52"/>
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
       <c r="J61" s="53"/>
       <c r="K61" s="53"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="191"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="189"/>
     </row>
     <row r="62" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="187"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="188"/>
-      <c r="E62" s="188"/>
-      <c r="F62" s="189"/>
+      <c r="B62" s="185"/>
+      <c r="C62" s="186"/>
+      <c r="D62" s="186"/>
+      <c r="E62" s="186"/>
+      <c r="F62" s="187"/>
       <c r="G62" s="52"/>
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
       <c r="J62" s="53"/>
       <c r="K62" s="53"/>
-      <c r="L62" s="190"/>
-      <c r="M62" s="191"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="189"/>
     </row>
     <row r="63" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="187"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="188"/>
-      <c r="F63" s="189"/>
+      <c r="B63" s="185"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="186"/>
+      <c r="E63" s="186"/>
+      <c r="F63" s="187"/>
       <c r="G63" s="52"/>
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
       <c r="J63" s="53"/>
       <c r="K63" s="53"/>
-      <c r="L63" s="190"/>
-      <c r="M63" s="191"/>
+      <c r="L63" s="188"/>
+      <c r="M63" s="189"/>
     </row>
     <row r="64" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="187"/>
-      <c r="C64" s="188"/>
-      <c r="D64" s="188"/>
-      <c r="E64" s="188"/>
-      <c r="F64" s="189"/>
+      <c r="B64" s="185"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="187"/>
       <c r="G64" s="52"/>
       <c r="H64" s="53"/>
       <c r="I64" s="53"/>
       <c r="J64" s="53"/>
       <c r="K64" s="53"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="191"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="189"/>
     </row>
     <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="208"/>
-      <c r="C65" s="209"/>
-      <c r="D65" s="209"/>
-      <c r="E65" s="209"/>
-      <c r="F65" s="210"/>
+      <c r="B65" s="204"/>
+      <c r="C65" s="205"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="205"/>
+      <c r="F65" s="206"/>
       <c r="G65" s="52"/>
       <c r="H65" s="53"/>
       <c r="I65" s="53"/>
       <c r="J65" s="53"/>
       <c r="K65" s="53"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="191"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="189"/>
     </row>
     <row r="66" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="187"/>
-      <c r="C66" s="188"/>
-      <c r="D66" s="188"/>
-      <c r="E66" s="188"/>
-      <c r="F66" s="189"/>
+      <c r="B66" s="185"/>
+      <c r="C66" s="186"/>
+      <c r="D66" s="186"/>
+      <c r="E66" s="186"/>
+      <c r="F66" s="187"/>
       <c r="G66" s="52"/>
       <c r="H66" s="53"/>
       <c r="I66" s="53"/>
       <c r="J66" s="53"/>
       <c r="K66" s="53"/>
-      <c r="L66" s="190"/>
-      <c r="M66" s="191"/>
+      <c r="L66" s="188"/>
+      <c r="M66" s="189"/>
     </row>
     <row r="67" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="187"/>
-      <c r="C67" s="188"/>
-      <c r="D67" s="188"/>
-      <c r="E67" s="188"/>
-      <c r="F67" s="189"/>
+      <c r="B67" s="185"/>
+      <c r="C67" s="186"/>
+      <c r="D67" s="186"/>
+      <c r="E67" s="186"/>
+      <c r="F67" s="187"/>
       <c r="G67" s="52"/>
       <c r="H67" s="53"/>
       <c r="I67" s="53"/>
       <c r="J67" s="53"/>
       <c r="K67" s="53"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="191"/>
+      <c r="L67" s="188"/>
+      <c r="M67" s="189"/>
     </row>
     <row r="68" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="187"/>
-      <c r="C68" s="188"/>
-      <c r="D68" s="188"/>
-      <c r="E68" s="188"/>
-      <c r="F68" s="189"/>
+      <c r="B68" s="185"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="187"/>
       <c r="G68" s="52"/>
       <c r="H68" s="53"/>
       <c r="I68" s="53"/>
       <c r="J68" s="53"/>
       <c r="K68" s="53"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="191"/>
+      <c r="L68" s="188"/>
+      <c r="M68" s="189"/>
     </row>
     <row r="69" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="187"/>
-      <c r="C69" s="188"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="188"/>
-      <c r="F69" s="189"/>
+      <c r="B69" s="185"/>
+      <c r="C69" s="186"/>
+      <c r="D69" s="186"/>
+      <c r="E69" s="186"/>
+      <c r="F69" s="187"/>
       <c r="G69" s="52"/>
       <c r="H69" s="53"/>
       <c r="I69" s="53"/>
       <c r="J69" s="53"/>
       <c r="K69" s="53"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="191"/>
+      <c r="L69" s="188"/>
+      <c r="M69" s="189"/>
     </row>
     <row r="70" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="187"/>
-      <c r="C70" s="188"/>
-      <c r="D70" s="188"/>
-      <c r="E70" s="188"/>
-      <c r="F70" s="189"/>
+      <c r="B70" s="185"/>
+      <c r="C70" s="186"/>
+      <c r="D70" s="186"/>
+      <c r="E70" s="186"/>
+      <c r="F70" s="187"/>
       <c r="G70" s="52"/>
       <c r="H70" s="53"/>
       <c r="I70" s="53"/>
       <c r="J70" s="53"/>
       <c r="K70" s="53"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="191"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="189"/>
     </row>
     <row r="71" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="208"/>
-      <c r="C71" s="209"/>
-      <c r="D71" s="209"/>
-      <c r="E71" s="209"/>
-      <c r="F71" s="210"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="205"/>
+      <c r="D71" s="205"/>
+      <c r="E71" s="205"/>
+      <c r="F71" s="206"/>
       <c r="G71" s="52"/>
       <c r="H71" s="53"/>
       <c r="I71" s="53"/>
       <c r="J71" s="53"/>
       <c r="K71" s="53"/>
-      <c r="L71" s="185"/>
-      <c r="M71" s="186"/>
+      <c r="L71" s="210"/>
+      <c r="M71" s="211"/>
     </row>
     <row r="72" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="208"/>
-      <c r="C72" s="209"/>
-      <c r="D72" s="209"/>
-      <c r="E72" s="209"/>
-      <c r="F72" s="210"/>
+      <c r="B72" s="204"/>
+      <c r="C72" s="205"/>
+      <c r="D72" s="205"/>
+      <c r="E72" s="205"/>
+      <c r="F72" s="206"/>
       <c r="G72" s="52"/>
       <c r="H72" s="53"/>
       <c r="I72" s="53"/>
       <c r="J72" s="53"/>
       <c r="K72" s="53"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="191"/>
+      <c r="L72" s="188"/>
+      <c r="M72" s="189"/>
     </row>
     <row r="73" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="208"/>
-      <c r="C73" s="209"/>
-      <c r="D73" s="209"/>
-      <c r="E73" s="209"/>
-      <c r="F73" s="210"/>
-      <c r="G73" s="213" t="s">
+      <c r="B73" s="204"/>
+      <c r="C73" s="205"/>
+      <c r="D73" s="205"/>
+      <c r="E73" s="205"/>
+      <c r="F73" s="206"/>
+      <c r="G73" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="H73" s="214"/>
-      <c r="I73" s="214"/>
-      <c r="J73" s="214"/>
+      <c r="H73" s="208"/>
+      <c r="I73" s="208"/>
+      <c r="J73" s="208"/>
       <c r="K73" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="L73" s="190"/>
-      <c r="M73" s="191"/>
+      <c r="L73" s="188"/>
+      <c r="M73" s="189"/>
     </row>
     <row r="74" spans="2:13" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="36"/>
@@ -10351,8 +10351,8 @@
       <c r="B75" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="190"/>
-      <c r="D75" s="190"/>
+      <c r="C75" s="188"/>
+      <c r="D75" s="188"/>
       <c r="E75" s="24" t="s">
         <v>60</v>
       </c>
@@ -10366,56 +10366,56 @@
       <c r="M75" s="39"/>
     </row>
     <row r="76" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="196" t="s">
+      <c r="B76" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="197"/>
-      <c r="D76" s="197"/>
-      <c r="E76" s="197" t="s">
+      <c r="C76" s="195"/>
+      <c r="D76" s="195"/>
+      <c r="E76" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="197"/>
-      <c r="G76" s="197" t="s">
+      <c r="F76" s="195"/>
+      <c r="G76" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H76" s="197"/>
-      <c r="I76" s="197"/>
-      <c r="J76" s="198" t="s">
+      <c r="H76" s="195"/>
+      <c r="I76" s="195"/>
+      <c r="J76" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K76" s="199"/>
-      <c r="L76" s="197" t="s">
+      <c r="K76" s="197"/>
+      <c r="L76" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M76" s="200"/>
+      <c r="M76" s="198"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="205"/>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="206"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="206"/>
-      <c r="H77" s="206"/>
-      <c r="I77" s="206"/>
-      <c r="J77" s="206"/>
-      <c r="K77" s="206"/>
-      <c r="L77" s="206"/>
-      <c r="M77" s="212"/>
+      <c r="B77" s="200"/>
+      <c r="C77" s="201"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="201"/>
+      <c r="F77" s="201"/>
+      <c r="G77" s="201"/>
+      <c r="H77" s="201"/>
+      <c r="I77" s="201"/>
+      <c r="J77" s="201"/>
+      <c r="K77" s="201"/>
+      <c r="L77" s="201"/>
+      <c r="M77" s="203"/>
     </row>
     <row r="78" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="207"/>
-      <c r="C78" s="192"/>
-      <c r="D78" s="192"/>
-      <c r="E78" s="192"/>
-      <c r="F78" s="192"/>
-      <c r="G78" s="192"/>
-      <c r="H78" s="192"/>
-      <c r="I78" s="192"/>
-      <c r="J78" s="192"/>
-      <c r="K78" s="192"/>
-      <c r="L78" s="192"/>
-      <c r="M78" s="193"/>
+      <c r="B78" s="202"/>
+      <c r="C78" s="190"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="190"/>
+      <c r="F78" s="190"/>
+      <c r="G78" s="190"/>
+      <c r="H78" s="190"/>
+      <c r="I78" s="190"/>
+      <c r="J78" s="190"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="190"/>
+      <c r="M78" s="191"/>
     </row>
     <row r="79" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="41" t="s">
@@ -10751,33 +10751,33 @@
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="216" t="s">
+      <c r="B5" s="212" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="217"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="210" t="s">
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
       <c r="K5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="197" t="s">
+      <c r="L5" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="200"/>
+      <c r="M5" s="198"/>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="219"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
-      <c r="E6" s="220"/>
-      <c r="F6" s="221"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="216"/>
+      <c r="E6" s="216"/>
+      <c r="F6" s="217"/>
       <c r="G6" s="64">
         <v>1</v>
       </c>
@@ -10793,220 +10793,220 @@
       <c r="K6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="197"/>
-      <c r="M6" s="200"/>
+      <c r="L6" s="195"/>
+      <c r="M6" s="198"/>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="187"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="189"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="52"/>
       <c r="H7" s="65"/>
       <c r="I7" s="65"/>
       <c r="J7" s="65"/>
       <c r="K7" s="65"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="191"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="189"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
+      <c r="B8" s="185"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="186"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="52"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
       <c r="K8" s="65"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="191"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="189"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="52"/>
       <c r="H9" s="65"/>
       <c r="I9" s="65"/>
       <c r="J9" s="65"/>
       <c r="K9" s="65"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="191"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="189"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="189"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
       <c r="G10" s="52"/>
       <c r="H10" s="65"/>
       <c r="I10" s="65"/>
       <c r="J10" s="65"/>
       <c r="K10" s="65"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="191"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="189"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="187"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="189"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="187"/>
       <c r="G11" s="52"/>
       <c r="H11" s="65"/>
       <c r="I11" s="65"/>
       <c r="J11" s="65"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="191"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="189"/>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="187"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="189"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
       <c r="G12" s="52"/>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="191"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="187"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="189"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
       <c r="G13" s="52"/>
       <c r="H13" s="65"/>
       <c r="I13" s="65"/>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="191"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="187"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="189"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="187"/>
       <c r="G14" s="52"/>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
       <c r="J14" s="65"/>
       <c r="K14" s="65"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="191"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="187"/>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="187"/>
       <c r="G15" s="52"/>
       <c r="H15" s="65"/>
       <c r="I15" s="65"/>
       <c r="J15" s="65"/>
       <c r="K15" s="65"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="191"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="189"/>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="187"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="189"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="187"/>
       <c r="G16" s="52"/>
       <c r="H16" s="65"/>
       <c r="I16" s="65"/>
       <c r="J16" s="65"/>
       <c r="K16" s="65"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="191"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="189"/>
     </row>
     <row r="17" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="187"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="189"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="187"/>
       <c r="G17" s="52"/>
       <c r="H17" s="65"/>
       <c r="I17" s="65"/>
       <c r="J17" s="65"/>
       <c r="K17" s="65"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="191"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="189"/>
     </row>
     <row r="18" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="187"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="189"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="187"/>
       <c r="G18" s="52"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
       <c r="J18" s="65"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="191"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="189"/>
     </row>
     <row r="19" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="187"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="189"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="187"/>
       <c r="G19" s="52"/>
       <c r="H19" s="65"/>
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="186"/>
+      <c r="L19" s="210"/>
+      <c r="M19" s="211"/>
     </row>
     <row r="20" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="187"/>
-      <c r="C20" s="188"/>
-      <c r="D20" s="188"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="189"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="187"/>
       <c r="G20" s="52"/>
       <c r="H20" s="65"/>
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="191"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="189"/>
     </row>
     <row r="21" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="208"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="213" t="s">
+      <c r="B21" s="204"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="209"/>
       <c r="K21" s="59"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="191"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="189"/>
     </row>
     <row r="22" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="222"/>
@@ -11023,11 +11023,11 @@
       <c r="M22" s="224"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" s="205" t="s">
+      <c r="B23" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
+      <c r="C23" s="201"/>
+      <c r="D23" s="201"/>
       <c r="E23" s="25" t="s">
         <v>41</v>
       </c>
@@ -11037,60 +11037,60 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="194"/>
-      <c r="M23" s="195"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="193"/>
     </row>
     <row r="24" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197" t="s">
+      <c r="C24" s="195"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197" t="s">
+      <c r="F24" s="195"/>
+      <c r="G24" s="195" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="197"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="198" t="s">
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="196" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="199"/>
-      <c r="L24" s="197" t="s">
+      <c r="K24" s="197"/>
+      <c r="L24" s="195" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="200"/>
+      <c r="M24" s="198"/>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B25" s="205"/>
-      <c r="C25" s="206"/>
-      <c r="D25" s="206"/>
-      <c r="E25" s="206"/>
-      <c r="F25" s="206"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="212"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="201"/>
+      <c r="F25" s="201"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="203"/>
     </row>
     <row r="26" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="207"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="193"/>
+      <c r="B26" s="202"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="191"/>
     </row>
     <row r="28" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:35" s="82" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12107,6 +12107,14 @@
     <mergeCell ref="AA38:AB38"/>
     <mergeCell ref="AC38:AD38"/>
     <mergeCell ref="AE38:AF38"/>
+    <mergeCell ref="AG44:AI44"/>
+    <mergeCell ref="O45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AA45:AB45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AG45:AI45"/>
     <mergeCell ref="AG40:AI40"/>
     <mergeCell ref="O41:V41"/>
     <mergeCell ref="W41:X41"/>
@@ -12121,8 +12129,6 @@
     <mergeCell ref="AA40:AB40"/>
     <mergeCell ref="AC40:AD40"/>
     <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="O50:R50"/>
     <mergeCell ref="AG42:AI42"/>
     <mergeCell ref="O43:V43"/>
     <mergeCell ref="W43:X43"/>
@@ -12137,14 +12143,6 @@
     <mergeCell ref="AA42:AB42"/>
     <mergeCell ref="AC42:AD42"/>
     <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="AG44:AI44"/>
-    <mergeCell ref="O45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="AA45:AB45"/>
-    <mergeCell ref="AC45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AG45:AI45"/>
     <mergeCell ref="O44:V44"/>
     <mergeCell ref="W44:X44"/>
     <mergeCell ref="Y44:Z44"/>
@@ -12155,6 +12153,8 @@
     <mergeCell ref="S49:V49"/>
     <mergeCell ref="S50:V50"/>
     <mergeCell ref="S51:V51"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="O50:R50"/>
     <mergeCell ref="AG46:AI46"/>
     <mergeCell ref="W46:AD46"/>
     <mergeCell ref="O47:AI47"/>
